--- a/output/detailed.xlsx
+++ b/output/detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB6"/>
+  <dimension ref="A1:EP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,522 +446,722 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AdmitCard No</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q16</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Q16</t>
+          <t>Q17</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Q17</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Q18</t>
+          <t>Q19</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Q19</t>
+          <t>Q20</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Q20</t>
+          <t>Q21</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Q21</t>
+          <t>Q22</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Q22</t>
+          <t>Q23</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Q23</t>
+          <t>Q24</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Q24</t>
+          <t>Q25</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Q25</t>
+          <t>Q26</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Q26</t>
+          <t>Q27</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Q27</t>
+          <t>Q28</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Q28</t>
+          <t>Q29</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Q29</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q32</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Q32</t>
+          <t>Q33</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Q33</t>
+          <t>Q34</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Q34</t>
+          <t>Q35</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Q35</t>
+          <t>Q36</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Q36</t>
+          <t>Q37</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Q37</t>
+          <t>Q38</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Q38</t>
+          <t>Q39</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Q39</t>
+          <t>Q40</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Q40</t>
+          <t>Q41</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Q41</t>
+          <t>Q42</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Q42</t>
+          <t>Q43</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Q43</t>
+          <t>Q44</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Q44</t>
+          <t>Q45</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Q45</t>
+          <t>Q46</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Q46</t>
+          <t>Q47</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Q47</t>
+          <t>Q48</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Q48</t>
+          <t>Q49</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Q49</t>
+          <t>Q50</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Q50</t>
+          <t>Q51</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Q51</t>
+          <t>Q52</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Q52</t>
+          <t>Q53</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Q53</t>
+          <t>Q54</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Q54</t>
+          <t>Q55</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Q55</t>
+          <t>Q56</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>Q56</t>
+          <t>Q57</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>Q57</t>
+          <t>Q58</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>Q58</t>
+          <t>Q59</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>Q59</t>
+          <t>Q60</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>Q60</t>
+          <t>Q61</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>Q61</t>
+          <t>Q62</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>Q62</t>
+          <t>Q63</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>Q63</t>
+          <t>Q64</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>Q64</t>
+          <t>Q65</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>Q65</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q68</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>Q68</t>
+          <t>Q69</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>Q69</t>
+          <t>Q70</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>Q70</t>
+          <t>Q71</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>Q71</t>
+          <t>Q72</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>Q72</t>
+          <t>Q73</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>Q73</t>
+          <t>Q74</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>Q74</t>
+          <t>Q75</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>Q75</t>
+          <t>Q76</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>Q76</t>
+          <t>Q77</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>Q77</t>
+          <t>Q78</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>Q78</t>
+          <t>Q79</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>Q79</t>
+          <t>Q80</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>Q80</t>
+          <t>Q81</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>Q81</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>Q82</t>
+          <t>Q83</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>Q83</t>
+          <t>Q84</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>Q84</t>
+          <t>Q85</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>Q85</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q88</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>Q88</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q90</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>Q90</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q92</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>Q92</t>
+          <t>Q93</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>Q93</t>
+          <t>Q94</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>Q94</t>
+          <t>Q95</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>Q95</t>
+          <t>Q96</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>Q96</t>
+          <t>Q97</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>Q97</t>
+          <t>Q98</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>Q98</t>
+          <t>Q99</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>Q99</t>
+          <t>Q100</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>Q100</t>
+          <t>Q101</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
+          <t>Q102</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Q103</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Q104</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Q105</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Q106</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Q107</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Q108</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Q109</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Q112</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Q113</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Q114</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Q115</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q117</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Q118</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Q119</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Q120</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Q121</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Q122</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Q123</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>Q124</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>Q125</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q126</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Q127</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Q128</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Q129</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Q130</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Q131</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>Q133</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>Q134</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>Q137</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>Q138</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>Q139</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>Q140</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>Score</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -971,22 +1171,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024004</t>
+          <t>UP22SWA251006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unreserved</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -996,37 +1196,37 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1036,22 +1236,22 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1061,42 +1261,42 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1106,17 +1306,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1131,7 +1331,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1141,7 +1341,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -1156,12 +1356,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -1176,17 +1376,17 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -1196,7 +1396,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -1221,7 +1421,7 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1246,7 +1446,7 @@
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
@@ -1256,12 +1456,12 @@
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
@@ -1271,22 +1471,22 @@
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
@@ -1296,12 +1496,12 @@
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
@@ -1311,27 +1511,27 @@
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
@@ -1346,17 +1546,17 @@
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
@@ -1366,42 +1566,42 @@
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CI2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
@@ -1411,27 +1611,27 @@
       </c>
       <c r="CL2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CM2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CN2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CO2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr">
@@ -1441,37 +1641,37 @@
       </c>
       <c r="CR2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CS2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CT2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CU2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CV2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CW2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CX2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CY2" t="inlineStr">
@@ -1481,16 +1681,216 @@
       </c>
       <c r="CZ2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="DA2" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EO2" t="n">
+        <v>120</v>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1499,32 +1899,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024003</t>
+          <t>UP21SDA250790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>0832</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OBC-NCL</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1539,12 +1939,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1554,17 +1954,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1574,32 +1974,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1609,42 +2009,42 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1654,7 +2054,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1664,52 +2064,52 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1719,67 +2119,67 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
@@ -1789,27 +2189,27 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
@@ -1829,17 +2229,17 @@
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
@@ -1854,7 +2254,7 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
@@ -1864,17 +2264,17 @@
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
@@ -1884,17 +2284,17 @@
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CD3" t="inlineStr">
@@ -1909,7 +2309,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
@@ -1919,12 +2319,12 @@
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
@@ -1934,22 +2334,22 @@
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CM3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CN3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CO3" t="inlineStr">
@@ -1959,17 +2359,17 @@
       </c>
       <c r="CP3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CQ3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CR3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CS3" t="inlineStr">
@@ -1979,32 +2379,32 @@
       </c>
       <c r="CT3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CU3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="CV3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CW3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CX3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CY3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CZ3" t="inlineStr">
@@ -2014,11 +2414,211 @@
       </c>
       <c r="DA3" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DB3" t="n">
-        <v>55</v>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EO3" t="n">
+        <v>160</v>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2027,27 +2627,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024002</t>
+          <t>UP22SDA251042</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2057,22 +2657,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2082,7 +2682,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -2092,7 +2692,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -2102,37 +2702,37 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -2142,17 +2742,17 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -2162,12 +2762,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -2182,7 +2782,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -2192,77 +2792,77 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
@@ -2277,7 +2877,7 @@
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
@@ -2287,22 +2887,22 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
@@ -2312,7 +2912,7 @@
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
@@ -2322,7 +2922,7 @@
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
@@ -2332,17 +2932,17 @@
       </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
@@ -2352,7 +2952,7 @@
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
@@ -2362,27 +2962,27 @@
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
@@ -2392,17 +2992,17 @@
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
@@ -2417,22 +3017,22 @@
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
@@ -2442,7 +3042,7 @@
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
@@ -2457,27 +3057,27 @@
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="CM4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CN4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CO4" t="inlineStr">
@@ -2487,27 +3087,27 @@
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CR4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CS4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CT4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CU4" t="inlineStr">
@@ -2517,22 +3117,22 @@
       </c>
       <c r="CV4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CW4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CX4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CY4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="CZ4" t="inlineStr">
@@ -2542,1067 +3142,211 @@
       </c>
       <c r="DA4" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DB4" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CP5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CQ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CR5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CS5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CT5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CU5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CV5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CW5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CX5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CY5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CZ5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="DA5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DB5" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEN-EWS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="BW6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BY6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="BZ6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CE6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CF6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CG6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CH6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CJ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CN6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CQ6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CR6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CS6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CT6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CU6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="CV6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CW6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CX6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CY6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CZ6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="DA6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DB6" t="n">
-        <v>16</v>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EO4" t="n">
+        <v>130</v>
+      </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
   </sheetData>
